--- a/egs/online_diarization/v1/notebooks/batch/results.xlsx
+++ b/egs/online_diarization/v1/notebooks/batch/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
   <si>
     <t xml:space="preserve">Database</t>
   </si>
@@ -78,7 +78,24 @@
     <t xml:space="preserve">X-vector</t>
   </si>
   <si>
+    <t xml:space="preserve">LSTM32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSTM16</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Callhome
+30 epochs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plda v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plda v2
+(matrix)</t>
   </si>
 </sst>
 </file>
@@ -377,7 +394,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -410,6 +427,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -418,12 +439,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -519,10 +544,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -869,7 +894,7 @@
       <c r="H10" s="5" t="n">
         <v>14.015</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="8" t="n">
         <v>17.925</v>
       </c>
       <c r="J10" s="5" t="n">
@@ -887,204 +912,1349 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="9" t="n">
-        <v>18.04</v>
-      </c>
-      <c r="F11" s="9" t="n">
-        <v>34.76</v>
-      </c>
-      <c r="G11" s="9" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="H11" s="10" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="I11" s="10" t="n">
-        <v>38.48</v>
-      </c>
-      <c r="J11" s="10" t="n">
-        <v>0.9989</v>
-      </c>
-      <c r="K11" s="9" t="n">
-        <v>19.015</v>
-      </c>
-      <c r="L11" s="9" t="n">
-        <v>36.62</v>
-      </c>
-      <c r="M11" s="9" t="n">
-        <v>0.999</v>
+      <c r="E11" s="11" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="F11" s="11" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="G11" s="11" t="n">
+        <v>0.9872</v>
+      </c>
+      <c r="H11" s="11" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="I11" s="11" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="J11" s="11" t="n">
+        <v>0.9977</v>
+      </c>
+      <c r="K11" s="11" t="n">
+        <v>19.795</v>
+      </c>
+      <c r="L11" s="11" t="n">
+        <v>23.385</v>
+      </c>
+      <c r="M11" s="11" t="n">
+        <v>0.99245</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="9" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="F12" s="9" t="n">
-        <v>32.93</v>
-      </c>
-      <c r="G12" s="9" t="n">
-        <v>0.9994</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <v>16.76</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="J12" s="7" t="n">
-        <v>0.9984</v>
-      </c>
-      <c r="K12" s="9" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="L12" s="9" t="n">
-        <v>34.739</v>
-      </c>
-      <c r="M12" s="9" t="n">
-        <v>0.998</v>
+      <c r="E12" s="11" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="F12" s="11" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="G12" s="11" t="n">
+        <v>0.9645</v>
+      </c>
+      <c r="H12" s="11" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="I12" s="11" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="J12" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K12" s="11" t="n">
+        <v>16.085</v>
+      </c>
+      <c r="L12" s="11" t="n">
+        <v>18.015</v>
+      </c>
+      <c r="M12" s="11" t="n">
+        <v>0.95725</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
+      <c r="E13" s="11" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="F13" s="11" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="G13" s="11" t="n">
+        <v>0.8484</v>
+      </c>
+      <c r="H13" s="11" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="I13" s="11" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="J13" s="11" t="n">
+        <v>0.8783</v>
+      </c>
+      <c r="K13" s="11" t="n">
+        <v>13.765</v>
+      </c>
+      <c r="L13" s="11" t="n">
+        <v>15.085</v>
+      </c>
+      <c r="M13" s="11" t="n">
+        <v>0.86335</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
+      <c r="E14" s="11" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="F14" s="11" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="G14" s="11" t="n">
+        <v>0.7595</v>
+      </c>
+      <c r="H14" s="11" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="I14" s="11" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="J14" s="11" t="n">
+        <v>0.9083</v>
+      </c>
+      <c r="K14" s="11" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L14" s="11" t="n">
+        <v>12.345</v>
+      </c>
+      <c r="M14" s="11" t="n">
+        <v>0.8339</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="E15" s="11" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="F15" s="11" t="n">
+        <v>31.86</v>
+      </c>
+      <c r="G15" s="11" t="n">
+        <v>0.9994</v>
+      </c>
+      <c r="H15" s="11" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="I15" s="11" t="n">
+        <v>28.67</v>
+      </c>
+      <c r="J15" s="11" t="n">
+        <v>0.9994</v>
+      </c>
+      <c r="K15" s="11" t="n">
+        <v>21.565</v>
+      </c>
+      <c r="L15" s="11" t="n">
+        <v>30.265</v>
+      </c>
+      <c r="M15" s="11" t="n">
+        <v>0.9994</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="11" t="n">
-        <v>30.95</v>
+        <v>20.54</v>
       </c>
       <c r="F16" s="11" t="n">
-        <v>40.59</v>
+        <v>61.2</v>
       </c>
       <c r="G16" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H16" s="11" t="n">
-        <v>26.03</v>
+        <v>20.54</v>
       </c>
       <c r="I16" s="11" t="n">
-        <v>35.43</v>
+        <v>25.2</v>
       </c>
       <c r="J16" s="11" t="n">
-        <v>1</v>
+        <v>0.9997</v>
       </c>
       <c r="K16" s="11" t="n">
-        <v>28.49</v>
+        <v>20.54</v>
       </c>
       <c r="L16" s="11" t="n">
-        <v>38.01</v>
+        <v>43.2</v>
       </c>
       <c r="M16" s="11" t="n">
-        <v>1</v>
+        <v>0.99985</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="E17" s="11" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="F17" s="11" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="G17" s="11" t="n">
+        <v>0.9996</v>
+      </c>
+      <c r="H17" s="11" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="I17" s="11" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="J17" s="11" t="n">
+        <v>0.9938</v>
+      </c>
+      <c r="K17" s="11" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="L17" s="11" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="M17" s="11" t="n">
+        <v>0.9967</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="E18" s="11" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="F18" s="11" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="G18" s="11" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H18" s="11" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="J18" s="11" t="n">
+        <v>0.9814</v>
+      </c>
+      <c r="K18" s="11" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="L18" s="11" t="n">
+        <v>16.005</v>
+      </c>
+      <c r="M18" s="11" t="n">
+        <v>0.9832</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>34.76</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="H19" s="12" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="I19" s="12" t="n">
+        <v>38.48</v>
+      </c>
+      <c r="J19" s="12" t="n">
+        <v>0.9989</v>
+      </c>
+      <c r="K19" s="4" t="n">
+        <v>19.015</v>
+      </c>
+      <c r="L19" s="4" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="M19" s="4" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>32.93</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>0.9994</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>36.55</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>0.9984</v>
+      </c>
+      <c r="K20" s="4" t="n">
+        <v>16.22</v>
+      </c>
+      <c r="L20" s="4" t="n">
+        <v>34.739</v>
+      </c>
+      <c r="M20" s="4" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>26.03</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>35.43</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>38.01</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="11" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="F28" s="11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G28" s="11" t="n">
+        <v>0.5148</v>
+      </c>
+      <c r="H28" s="11" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="I28" s="11" t="n">
+        <v>4.568</v>
+      </c>
+      <c r="J28" s="11" t="n">
+        <v>0.5397</v>
+      </c>
+      <c r="K28" s="11" t="n">
+        <f aca="false">(E28+H28)/2</f>
+        <v>5.655</v>
+      </c>
+      <c r="L28" s="11" t="n">
+        <f aca="false">(F28+I28)/2</f>
+        <v>4.534</v>
+      </c>
+      <c r="M28" s="11" t="n">
+        <f aca="false">(G28+J28)/2</f>
+        <v>0.52725</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="11" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F29" s="11" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="G29" s="11" t="n">
+        <v>0.5453</v>
+      </c>
+      <c r="H29" s="11" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="I29" s="11" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="J29" s="11" t="n">
+        <v>0.5217</v>
+      </c>
+      <c r="K29" s="11" t="n">
+        <f aca="false">(E29+H29)/2</f>
+        <v>4.935</v>
+      </c>
+      <c r="L29" s="11" t="n">
+        <f aca="false">(F29+I29)/2</f>
+        <v>3.905</v>
+      </c>
+      <c r="M29" s="11" t="n">
+        <f aca="false">(G29+J29)/2</f>
+        <v>0.5335</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="11" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="F30" s="11" t="n">
+        <v>3.221</v>
+      </c>
+      <c r="G30" s="11" t="n">
+        <v>0.4307</v>
+      </c>
+      <c r="H30" s="11" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="I30" s="11" t="n">
+        <v>2.594</v>
+      </c>
+      <c r="J30" s="11" t="n">
+        <v>0.3627</v>
+      </c>
+      <c r="K30" s="11" t="n">
+        <f aca="false">(E30+H30)/2</f>
+        <v>4.695</v>
+      </c>
+      <c r="L30" s="11" t="n">
+        <f aca="false">(F30+I30)/2</f>
+        <v>2.9075</v>
+      </c>
+      <c r="M30" s="11" t="n">
+        <f aca="false">(G30+J30)/2</f>
+        <v>0.3967</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="11" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F31" s="11" t="n">
+        <v>2.666</v>
+      </c>
+      <c r="G31" s="11" t="n">
+        <v>0.3702</v>
+      </c>
+      <c r="H31" s="11" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="I31" s="11" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="J31" s="11" t="n">
+        <v>0.3897</v>
+      </c>
+      <c r="K31" s="11" t="n">
+        <f aca="false">(E31+H31)/2</f>
+        <v>4.54</v>
+      </c>
+      <c r="L31" s="11" t="n">
+        <f aca="false">(F31+I31)/2</f>
+        <v>2.8355</v>
+      </c>
+      <c r="M31" s="11" t="n">
+        <f aca="false">(G31+J31)/2</f>
+        <v>0.37995</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="F32" s="11" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="G32" s="11" t="n">
+        <v>0.7802</v>
+      </c>
+      <c r="H32" s="11" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="I32" s="11" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="J32" s="11" t="n">
+        <v>0.8107</v>
+      </c>
+      <c r="K32" s="11" t="n">
+        <f aca="false">(E32+H32)/2</f>
+        <v>11.53</v>
+      </c>
+      <c r="L32" s="11" t="n">
+        <f aca="false">(F32+I32)/2</f>
+        <v>11.235</v>
+      </c>
+      <c r="M32" s="11" t="n">
+        <f aca="false">(G32+J32)/2</f>
+        <v>0.79545</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="11" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="F33" s="11" t="n">
+        <v>5.776</v>
+      </c>
+      <c r="G33" s="11" t="n">
+        <v>0.5745</v>
+      </c>
+      <c r="H33" s="11" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="I33" s="11" t="n">
+        <v>8.084</v>
+      </c>
+      <c r="J33" s="11" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="K33" s="11" t="n">
+        <f aca="false">(E33+H33)/2</f>
+        <v>7.8</v>
+      </c>
+      <c r="L33" s="11" t="n">
+        <f aca="false">(F33+I33)/2</f>
+        <v>6.93</v>
+      </c>
+      <c r="M33" s="11" t="n">
+        <f aca="false">(G33+J33)/2</f>
+        <v>0.60125</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="11" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="F34" s="11" t="n">
+        <v>5.877</v>
+      </c>
+      <c r="G34" s="11" t="n">
+        <v>0.6148</v>
+      </c>
+      <c r="H34" s="11" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="I34" s="11" t="n">
+        <v>4.909</v>
+      </c>
+      <c r="J34" s="11" t="n">
+        <v>0.5941</v>
+      </c>
+      <c r="K34" s="11" t="n">
+        <f aca="false">(E34+H34)/2</f>
+        <v>6.755</v>
+      </c>
+      <c r="L34" s="11" t="n">
+        <f aca="false">(F34+I34)/2</f>
+        <v>5.393</v>
+      </c>
+      <c r="M34" s="11" t="n">
+        <f aca="false">(G34+J34)/2</f>
+        <v>0.60445</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="11" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="F35" s="11" t="n">
+        <v>4.341</v>
+      </c>
+      <c r="G35" s="11" t="n">
+        <v>0.4716</v>
+      </c>
+      <c r="H35" s="11" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="I35" s="11" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="J35" s="11" t="n">
+        <v>0.5379</v>
+      </c>
+      <c r="K35" s="11" t="n">
+        <f aca="false">(E35+H35)/2</f>
+        <v>5.635</v>
+      </c>
+      <c r="L35" s="11" t="n">
+        <f aca="false">(F35+I35)/2</f>
+        <v>4.1755</v>
+      </c>
+      <c r="M35" s="11" t="n">
+        <f aca="false">(G35+J35)/2</f>
+        <v>0.50475</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13"/>
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>0.9337</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="I36" s="5" t="n">
+        <v>17.13</v>
+      </c>
+      <c r="J36" s="5" t="n">
+        <v>0.8911</v>
+      </c>
+      <c r="K36" s="5" t="n">
+        <v>6.925</v>
+      </c>
+      <c r="L36" s="5" t="n">
+        <v>17.435</v>
+      </c>
+      <c r="M36" s="5" t="n">
+        <v>0.9124</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>0.9222</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I37" s="5" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="J37" s="5" t="n">
+        <v>0.8425</v>
+      </c>
+      <c r="K37" s="5" t="n">
+        <v>5.415</v>
+      </c>
+      <c r="L37" s="5" t="n">
+        <v>14.815</v>
+      </c>
+      <c r="M37" s="5" t="n">
+        <v>0.88235</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>0.9278</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="I38" s="5" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="J38" s="5" t="n">
+        <v>0.8225</v>
+      </c>
+      <c r="K38" s="5" t="n">
+        <v>4.835</v>
+      </c>
+      <c r="L38" s="5" t="n">
+        <v>13.6149</v>
+      </c>
+      <c r="M38" s="5" t="n">
+        <v>0.87515</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>0.9278</v>
+      </c>
+      <c r="H39" s="5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I39" s="5" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="J39" s="5" t="n">
+        <v>0.7918</v>
+      </c>
+      <c r="K39" s="5" t="n">
+        <v>4.5649</v>
+      </c>
+      <c r="L39" s="5" t="n">
+        <v>12.985</v>
+      </c>
+      <c r="M39" s="5" t="n">
+        <v>0.8597</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>42.07</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>0.9996</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>34.19</v>
+      </c>
+      <c r="I40" s="5" t="n">
+        <v>41.26</v>
+      </c>
+      <c r="J40" s="5" t="n">
+        <v>0.9999</v>
+      </c>
+      <c r="K40" s="5" t="n">
+        <v>33.9599</v>
+      </c>
+      <c r="L40" s="5" t="n">
+        <v>41.665</v>
+      </c>
+      <c r="M40" s="5" t="n">
+        <v>0.9997</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>28.67</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>37.06</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5" t="n">
+        <v>28.63</v>
+      </c>
+      <c r="I41" s="5" t="n">
+        <v>36.31</v>
+      </c>
+      <c r="J41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="L41" s="5" t="n">
+        <v>36.685</v>
+      </c>
+      <c r="M41" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>34.38</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="I42" s="5" t="n">
+        <v>33.76</v>
+      </c>
+      <c r="J42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5" t="n">
+        <v>26.225</v>
+      </c>
+      <c r="L42" s="5" t="n">
+        <v>34.07</v>
+      </c>
+      <c r="M42" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5" t="n">
+        <v>25.17</v>
+      </c>
+      <c r="I43" s="5" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5" t="n">
+        <v>24.665</v>
+      </c>
+      <c r="L43" s="5" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="M43" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="11" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="F44" s="11" t="n">
+        <v>60.96</v>
+      </c>
+      <c r="G44" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="11" t="n">
+        <v>35.97</v>
+      </c>
+      <c r="I44" s="11" t="n">
+        <v>60.14</v>
+      </c>
+      <c r="J44" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="11" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="L44" s="11" t="n">
+        <v>60.55</v>
+      </c>
+      <c r="M44" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="11" t="n">
+        <v>34.48</v>
+      </c>
+      <c r="F48" s="11" t="n">
+        <v>59.62</v>
+      </c>
+      <c r="G48" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="I48" s="11" t="n">
+        <v>59.11</v>
+      </c>
+      <c r="J48" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="11" t="n">
+        <v>34.739</v>
+      </c>
+      <c r="L48" s="11" t="n">
+        <v>59.3649</v>
+      </c>
+      <c r="M48" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="11" t="n">
+        <v>31.05</v>
+      </c>
+      <c r="F49" s="11" t="n">
+        <v>61.73</v>
+      </c>
+      <c r="G49" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="11" t="n">
+        <v>31.41</v>
+      </c>
+      <c r="I49" s="11" t="n">
+        <v>61.75</v>
+      </c>
+      <c r="J49" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="11" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="L49" s="11" t="n">
+        <v>61.739</v>
+      </c>
+      <c r="M49" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="11" t="n">
+        <v>27.81</v>
+      </c>
+      <c r="F50" s="11" t="n">
+        <v>64.1</v>
+      </c>
+      <c r="G50" s="11" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="H50" s="11" t="n">
+        <v>27.13</v>
+      </c>
+      <c r="I50" s="11" t="n">
+        <v>64.21</v>
+      </c>
+      <c r="J50" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="11" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="L50" s="11" t="n">
+        <v>64.155</v>
+      </c>
+      <c r="M50" s="11" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="11" t="n">
+        <v>24.97</v>
+      </c>
+      <c r="F51" s="11" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="G51" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" s="11" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="I51" s="11" t="n">
+        <v>66.02</v>
+      </c>
+      <c r="J51" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="11" t="n">
+        <v>24.85</v>
+      </c>
+      <c r="L51" s="11" t="n">
+        <v>65.9</v>
+      </c>
+      <c r="M51" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="28">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1092,14 +2262,892 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A3:A26"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B15:B18"/>
     <mergeCell ref="C15:C18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="A28:A51"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C48:C51"/>
   </mergeCells>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
